--- a/biology/Zoologie/Hylaeamys_megacephalus/Hylaeamys_megacephalus.xlsx
+++ b/biology/Zoologie/Hylaeamys_megacephalus/Hylaeamys_megacephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylaeamys megacephalus, de nom commun souris terrestre à grosse tête[2], est une espèce américaine de rongeurs de la famille des Cricetidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylaeamys megacephalus, de nom commun souris terrestre à grosse tête, est une espèce américaine de rongeurs de la famille des Cricetidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a une longueur tête-corps de 9,2 à 12,5 cm de long, une queue de 8,8 à 12,7 cm de long et pèse de 23 à 59 g. Les pattes postérieures mesurent de 2,2 à 2,9 cm de long et les oreilles mesurent de 2 à 2,5 cm de large[3].
-Les poils qui forment la couche de finition sont gris près de la racine et bruns à la pointe. À certains endroits, la couleur grise est visible. Chez les jeunes, une couleur de pelage gris foncé déviante apparaît sur le dessus. Il y a une bordure claire sur le dessous blanc. Les griffes des pieds ont de longs poils sur le dessus[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a une longueur tête-corps de 9,2 à 12,5 cm de long, une queue de 8,8 à 12,7 cm de long et pèse de 23 à 59 g. Les pattes postérieures mesurent de 2,2 à 2,9 cm de long et les oreilles mesurent de 2 à 2,5 cm de large.
+Les poils qui forment la couche de finition sont gris près de la racine et bruns à la pointe. À certains endroits, la couleur grise est visible. Chez les jeunes, une couleur de pelage gris foncé déviante apparaît sur le dessus. Il y a une bordure claire sur le dessous blanc. Les griffes des pieds ont de longs poils sur le dessus.
 Le nombre de tétines chez les femelles est de huit.
 </t>
         </is>
@@ -544,11 +558,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition s'étend du Venezuela et des Guyanes à travers le Brésil jusqu'au Paraguay. Hylaeamys megacephalus est également présent à Trinité-et-Tobago[3].
-L'habitat se compose des forêts décidues humides tropicales et subtropicales près du fleuve Amazone et dans le cerrado[3].
-À l'est et à l'ouest de cette zone, on trouve d'autres espèces apparentées du genre Hylaeamys : H. perenensis à l'ouest de l'Amazonie, H. acritus en Bolivie, et H. laticeps et H. oniscus dans la forêt atlantique de l'est du Brésil[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition s'étend du Venezuela et des Guyanes à travers le Brésil jusqu'au Paraguay. Hylaeamys megacephalus est également présent à Trinité-et-Tobago.
+L'habitat se compose des forêts décidues humides tropicales et subtropicales près du fleuve Amazone et dans le cerrado.
+À l'est et à l'ouest de cette zone, on trouve d'autres espèces apparentées du genre Hylaeamys : H. perenensis à l'ouest de l'Amazonie, H. acritus en Bolivie, et H. laticeps et H. oniscus dans la forêt atlantique de l'est du Brésil.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a recensé des femelles gestantes avec trois ou quatre petits en juin et novembre[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a recensé des femelles gestantes avec trois ou quatre petits en juin et novembre.
 </t>
         </is>
       </c>
